--- a/CLAVES MECANICA.xlsx
+++ b/CLAVES MECANICA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CLAVES SIP-DGAE\Análisis de claves\CLAVES-FORMATOS FINALES\FORMATOS FINALES CORREGIDOS COMPLETOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad\Servicio Social\FORMATOS FINALES CORREGIDOS COMPLETOS\PlanesEstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$D$1:$R$121</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="201">
   <si>
     <t>VERSION</t>
   </si>
@@ -600,12 +600,45 @@
   </si>
   <si>
     <t>1055</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>ASIGNAUTRAS SOCIOHUMANÍSTICAS</t>
+  </si>
+  <si>
+    <t>MECÁNICA</t>
+  </si>
+  <si>
+    <t>MATERIALES Y MANUFACTURA</t>
+  </si>
+  <si>
+    <t>TERMOFLUIDOS</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE MATEMÁTICAS</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE FÍSICA Y QUÍMICA</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE CIENCIAS APLICADAS</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN COMPUTACIÓN</t>
+  </si>
+  <si>
+    <t>INGENIERÍA MECATRÓNICA</t>
+  </si>
+  <si>
+    <t>INGENIERÍA INDUSTRIAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -655,7 +688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -726,12 +759,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -776,6 +818,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R122"/>
+  <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:XFD121"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R112" sqref="R112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,18 +1127,19 @@
     <col min="6" max="6" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="60.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="6" customWidth="1"/>
-    <col min="17" max="17" width="39.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="6"/>
+    <col min="9" max="9" width="15.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="6" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10" style="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="39.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="30.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>162</v>
       </c>
@@ -1136,8 +1191,11 @@
       <c r="Q1" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>115</v>
       </c>
@@ -1190,8 +1248,11 @@
       <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>116</v>
       </c>
@@ -1244,8 +1305,11 @@
       <c r="Q3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>117</v>
       </c>
@@ -1298,8 +1362,11 @@
       <c r="Q4" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>118</v>
       </c>
@@ -1352,8 +1419,11 @@
       <c r="Q5" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>119</v>
       </c>
@@ -1406,8 +1476,11 @@
       <c r="Q6" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>120</v>
       </c>
@@ -1460,8 +1533,11 @@
       <c r="Q7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>121</v>
       </c>
@@ -1514,8 +1590,11 @@
       <c r="Q8" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>122</v>
       </c>
@@ -1568,8 +1647,11 @@
       <c r="Q9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>123</v>
       </c>
@@ -1622,8 +1704,11 @@
       <c r="Q10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>124</v>
       </c>
@@ -1676,8 +1761,11 @@
       <c r="Q11" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R11" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>125</v>
       </c>
@@ -1730,8 +1818,14 @@
       <c r="Q12" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>126</v>
       </c>
@@ -1784,8 +1878,11 @@
       <c r="Q13" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>127</v>
       </c>
@@ -1838,8 +1935,11 @@
       <c r="Q14" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>128</v>
       </c>
@@ -1892,8 +1992,11 @@
       <c r="Q15" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>129</v>
       </c>
@@ -1946,8 +2049,11 @@
       <c r="Q16" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>130</v>
       </c>
@@ -2000,8 +2106,11 @@
       <c r="Q17" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R17" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>131</v>
       </c>
@@ -2054,8 +2163,11 @@
       <c r="Q18" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>132</v>
       </c>
@@ -2108,8 +2220,11 @@
       <c r="Q19" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>133</v>
       </c>
@@ -2162,8 +2277,11 @@
       <c r="Q20" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>134</v>
       </c>
@@ -2216,8 +2334,11 @@
       <c r="Q21" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>135</v>
       </c>
@@ -2270,8 +2391,11 @@
       <c r="Q22" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>136</v>
       </c>
@@ -2324,8 +2448,11 @@
       <c r="Q23" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>137</v>
       </c>
@@ -2378,8 +2505,11 @@
       <c r="Q24" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>138</v>
       </c>
@@ -2432,8 +2562,11 @@
       <c r="Q25" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>139</v>
       </c>
@@ -2486,8 +2619,11 @@
       <c r="Q26" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>140</v>
       </c>
@@ -2540,8 +2676,11 @@
       <c r="Q27" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>141</v>
       </c>
@@ -2594,8 +2733,11 @@
       <c r="Q28" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>142</v>
       </c>
@@ -2647,8 +2789,11 @@
       <c r="Q29" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>143</v>
       </c>
@@ -2701,8 +2846,11 @@
       <c r="Q30" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>144</v>
       </c>
@@ -2755,8 +2903,11 @@
       <c r="Q31" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>145</v>
       </c>
@@ -2808,6 +2959,9 @@
       </c>
       <c r="Q32" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="R32" s="21" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2863,6 +3017,9 @@
       <c r="Q33" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="R33" s="21" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="34" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -2917,6 +3074,9 @@
       <c r="Q34" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="R34" s="21" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="35" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -2971,6 +3131,9 @@
       <c r="Q35" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="R35" s="21" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -3025,6 +3188,9 @@
       <c r="Q36" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="R36" s="21" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -3079,6 +3245,9 @@
       <c r="Q37" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="R37" s="21" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -3133,6 +3302,9 @@
       <c r="Q38" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="R38" s="21" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="39" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -3187,6 +3359,9 @@
       <c r="Q39" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="R39" s="20" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="40" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -3241,6 +3416,9 @@
       <c r="Q40" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="R40" s="20" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="41" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -3295,6 +3473,9 @@
       <c r="Q41" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="R41" s="20" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="42" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -3349,6 +3530,9 @@
       <c r="Q42" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="R42" s="22" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -3403,7 +3587,9 @@
       <c r="Q43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R43" s="12"/>
+      <c r="R43" s="23" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="44" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -3458,6 +3644,9 @@
       <c r="Q44" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="R44" s="22" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -3512,6 +3701,9 @@
       <c r="Q45" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="R45" s="20" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="46" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -3566,6 +3758,9 @@
       <c r="Q46" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="R46" s="20" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="47" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -3620,6 +3815,9 @@
       <c r="Q47" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="R47" s="20" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="48" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -3674,8 +3872,11 @@
       <c r="Q48" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R48" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>162</v>
       </c>
@@ -3728,8 +3929,11 @@
       <c r="Q49" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R49" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>163</v>
       </c>
@@ -3782,8 +3986,11 @@
       <c r="Q50" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R50" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>164</v>
       </c>
@@ -3836,8 +4043,11 @@
       <c r="Q51" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R51" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>165</v>
       </c>
@@ -3890,8 +4100,11 @@
       <c r="Q52" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R52" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>166</v>
       </c>
@@ -3944,8 +4157,11 @@
       <c r="Q53" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R53" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>167</v>
       </c>
@@ -3998,8 +4214,11 @@
       <c r="Q54" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R54" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>168</v>
       </c>
@@ -4052,8 +4271,11 @@
       <c r="Q55" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R55" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>169</v>
       </c>
@@ -4106,8 +4328,11 @@
       <c r="Q56" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R56" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>170</v>
       </c>
@@ -4160,8 +4385,11 @@
       <c r="Q57" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R57" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>171</v>
       </c>
@@ -4214,8 +4442,11 @@
       <c r="Q58" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R58" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>172</v>
       </c>
@@ -4268,8 +4499,11 @@
       <c r="Q59" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R59" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>173</v>
       </c>
@@ -4322,8 +4556,11 @@
       <c r="Q60" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R60" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>174</v>
       </c>
@@ -4376,8 +4613,11 @@
       <c r="Q61" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R61" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>175</v>
       </c>
@@ -4430,8 +4670,11 @@
       <c r="Q62" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R62" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>176</v>
       </c>
@@ -4484,8 +4727,11 @@
       <c r="Q63" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R63" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>177</v>
       </c>
@@ -4538,8 +4784,11 @@
       <c r="Q64" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R64" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>178</v>
       </c>
@@ -4592,8 +4841,11 @@
       <c r="Q65" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R65" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>179</v>
       </c>
@@ -4646,8 +4898,11 @@
       <c r="Q66" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R66" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>180</v>
       </c>
@@ -4700,8 +4955,11 @@
       <c r="Q67" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R67" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>181</v>
       </c>
@@ -4754,8 +5012,11 @@
       <c r="Q68" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R68" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>182</v>
       </c>
@@ -4808,8 +5069,11 @@
       <c r="Q69" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R69" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>183</v>
       </c>
@@ -4862,8 +5126,11 @@
       <c r="Q70" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R70" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>184</v>
       </c>
@@ -4916,8 +5183,11 @@
       <c r="Q71" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R71" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>185</v>
       </c>
@@ -4970,8 +5240,11 @@
       <c r="Q72" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R72" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>186</v>
       </c>
@@ -5024,8 +5297,11 @@
       <c r="Q73" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R73" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>187</v>
       </c>
@@ -5078,8 +5354,11 @@
       <c r="Q74" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R74" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>188</v>
       </c>
@@ -5132,8 +5411,11 @@
       <c r="Q75" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R75" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>189</v>
       </c>
@@ -5186,8 +5468,11 @@
       <c r="Q76" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R76" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>190</v>
       </c>
@@ -5240,8 +5525,11 @@
       <c r="Q77" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R77" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>191</v>
       </c>
@@ -5294,8 +5582,11 @@
       <c r="Q78" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R78" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>192</v>
       </c>
@@ -5348,8 +5639,11 @@
       <c r="Q79" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R79" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>193</v>
       </c>
@@ -5402,8 +5696,11 @@
       <c r="Q80" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R80" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>194</v>
       </c>
@@ -5456,8 +5753,11 @@
       <c r="Q81" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R81" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>195</v>
       </c>
@@ -5510,8 +5810,11 @@
       <c r="Q82" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R82" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>196</v>
       </c>
@@ -5564,8 +5867,11 @@
       <c r="Q83" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R83" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>197</v>
       </c>
@@ -5618,8 +5924,11 @@
       <c r="Q84" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R84" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>198</v>
       </c>
@@ -5672,8 +5981,11 @@
       <c r="Q85" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R85" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>199</v>
       </c>
@@ -5726,8 +6038,11 @@
       <c r="Q86" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R86" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>200</v>
       </c>
@@ -5780,8 +6095,11 @@
       <c r="Q87" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R87" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>201</v>
       </c>
@@ -5834,8 +6152,11 @@
       <c r="Q88" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R88" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>202</v>
       </c>
@@ -5888,8 +6209,11 @@
       <c r="Q89" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R89" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>203</v>
       </c>
@@ -5942,8 +6266,11 @@
       <c r="Q90" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R90" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>204</v>
       </c>
@@ -5996,8 +6323,11 @@
       <c r="Q91" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R91" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>205</v>
       </c>
@@ -6050,8 +6380,11 @@
       <c r="Q92" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R92" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>206</v>
       </c>
@@ -6104,8 +6437,11 @@
       <c r="Q93" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R93" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>207</v>
       </c>
@@ -6158,8 +6494,11 @@
       <c r="Q94" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R94" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>208</v>
       </c>
@@ -6212,8 +6551,11 @@
       <c r="Q95" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R95" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>209</v>
       </c>
@@ -6266,11 +6608,14 @@
       <c r="Q96" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R96" s="12" t="s">
+      <c r="R96" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="S96" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>210</v>
       </c>
@@ -6323,8 +6668,11 @@
       <c r="Q97" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R97" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>211</v>
       </c>
@@ -6377,8 +6725,11 @@
       <c r="Q98" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R98" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>212</v>
       </c>
@@ -6431,8 +6782,11 @@
       <c r="Q99" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R99" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>213</v>
       </c>
@@ -6485,8 +6839,11 @@
       <c r="Q100" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R100" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>214</v>
       </c>
@@ -6539,8 +6896,11 @@
       <c r="Q101" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R101" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>215</v>
       </c>
@@ -6593,8 +6953,11 @@
       <c r="Q102" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R102" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>216</v>
       </c>
@@ -6647,8 +7010,11 @@
       <c r="Q103" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R103" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>217</v>
       </c>
@@ -6701,8 +7067,11 @@
       <c r="Q104" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R104" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>218</v>
       </c>
@@ -6755,8 +7124,11 @@
       <c r="Q105" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R105" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>219</v>
       </c>
@@ -6809,8 +7181,11 @@
       <c r="Q106" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R106" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>220</v>
       </c>
@@ -6863,8 +7238,11 @@
       <c r="Q107" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R107" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>221</v>
       </c>
@@ -6917,8 +7295,11 @@
       <c r="Q108" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R108" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>222</v>
       </c>
@@ -6971,8 +7352,11 @@
       <c r="Q109" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R109" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>223</v>
       </c>
@@ -7025,8 +7409,11 @@
       <c r="Q110" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R110" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>224</v>
       </c>
@@ -7079,8 +7466,11 @@
       <c r="Q111" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R111" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>225</v>
       </c>
@@ -7133,8 +7523,11 @@
       <c r="Q112" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R112" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>226</v>
       </c>
@@ -7187,8 +7580,11 @@
       <c r="Q113" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R113" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>227</v>
       </c>
@@ -7241,8 +7637,11 @@
       <c r="Q114" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R114" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>228</v>
       </c>
@@ -7295,8 +7694,11 @@
       <c r="Q115" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R115" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>229</v>
       </c>
@@ -7349,8 +7751,11 @@
       <c r="Q116" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R116" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>230</v>
       </c>
@@ -7403,8 +7808,11 @@
       <c r="Q117" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R117" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>231</v>
       </c>
@@ -7457,8 +7865,11 @@
       <c r="Q118" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R118" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>232</v>
       </c>
@@ -7511,8 +7922,11 @@
       <c r="Q119" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R119" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>233</v>
       </c>
@@ -7565,8 +7979,11 @@
       <c r="Q120" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R120" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>234</v>
       </c>
@@ -7619,12 +8036,14 @@
       <c r="Q121" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R121" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H122" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:R121"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
